--- a/tables/treatmentDemand/currentTrends/livingWithWhom.xlsx
+++ b/tables/treatmentDemand/currentTrends/livingWithWhom.xlsx
@@ -33,27 +33,12 @@
     <t>Alone</t>
   </si>
   <si>
-    <t>With the family of origin (parents, etc.)</t>
-  </si>
-  <si>
-    <t>With partner / children</t>
-  </si>
-  <si>
-    <t>With friends or other people (with no family relation)</t>
-  </si>
-  <si>
     <t>In detention</t>
   </si>
   <si>
-    <t>In institutions /shelters (not detention)</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Not known / missing</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -145,6 +130,21 @@
   </si>
   <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>With family of origin</t>
+  </si>
+  <si>
+    <t>With partner/children</t>
+  </si>
+  <si>
+    <t>With friends</t>
+  </si>
+  <si>
+    <t>In institutions/shelter</t>
+  </si>
+  <si>
+    <t>Not known</t>
   </si>
 </sst>
 </file>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,28 +508,28 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>0</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>2017</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2017</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>2017</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>2017</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2017</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>2017</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>2017</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>2016</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>2017</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>2017</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>2017</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>2017</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>2017</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>2017</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>2017</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>2017</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>2017</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>2017</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>2015</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>2017</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>2017</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>2017</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>2017</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>2017</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>2016</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>2017</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>2017</v>
